--- a/config/testcases/Report_MSP.ChW(Clone).xlsx
+++ b/config/testcases/Report_MSP.ChW(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="i3/pIGfodAxMdeRBFqOixM2LL36Xgo1A2MXSN07Y42o="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="4fKXVErUtxcA5vPEVMyBsHS6xaDYGzhtJtJaQlK00yQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
   <si>
     <t>TCID</t>
   </si>
@@ -238,10 +238,10 @@
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].audio[*].file_path</t>
   </si>
   <si>
-    <t>chờ đáp án xuất hiện</t>
+    <t>Chờ đáp án xuất hiện</t>
   </si>
   <si>
-    <t>Button (1)</t>
+    <t>Click hand,60</t>
   </si>
   <si>
     <t>kiểm tra text đáp án 1</t>
@@ -268,7 +268,10 @@
     <t>isElementsDisplay</t>
   </si>
   <si>
-    <t>.mp3</t>
+    <t>20,.mp3</t>
+  </si>
+  <si>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer')].audio[*].file_path</t>
   </si>
   <si>
     <t>true</t>
@@ -304,10 +307,10 @@
     <t>Xác định name đáp án đúng</t>
   </si>
   <si>
-    <t>returnPath</t>
+    <t>returnPathFullName</t>
   </si>
   <si>
-    <t>Answers area/Button*,$.index</t>
+    <t>Answers area/Button*[$.index]</t>
   </si>
   <si>
     <t>Kiểm tra kéo đáp án đúng</t>
@@ -316,19 +319,16 @@
     <t>drag</t>
   </si>
   <si>
-    <t>$.path,Reply chat box/Placeholder box</t>
-  </si>
-  <si>
-    <t>Đợi pháo hoa xuất hiện</t>
-  </si>
-  <si>
-    <t>Firework</t>
+    <t>Answers area/$.path,Reply chat box/Placeholder box line</t>
   </si>
   <si>
     <t>TS5</t>
   </si>
   <si>
     <t>waitForObjectNotPresent</t>
+  </si>
+  <si>
+    <t>Firework</t>
   </si>
   <si>
     <t>isElementDisplay</t>
@@ -340,7 +340,7 @@
     <t>waitForObjectContainNotAble</t>
   </si>
   <si>
-    <t>Question chat box,TextMeshProUGUI,text</t>
+    <t>Question chat box/Content,TextMeshProUGUI,text</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
@@ -355,19 +355,13 @@
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer_data')].image[*].file_path</t>
   </si>
   <si>
-    <t>getAudioSource</t>
-  </si>
-  <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer_data')].audio[*].file_path</t>
   </si>
   <si>
-    <t>Chờ đáp án xuất hiện</t>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer')].text_boolean_</t>
   </si>
   <si>
-    <t>Short Notification 1</t>
-  </si>
-  <si>
-    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer')].text_boolean_</t>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer')].audio[*].file_path</t>
   </si>
   <si>
     <t>TS6</t>
@@ -597,12 +591,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -615,8 +603,14 @@
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1773,26 +1767,26 @@
       <c r="B7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -1801,13 +1795,13 @@
       <c r="B8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -1816,13 +1810,13 @@
       <c r="I8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -1831,17 +1825,17 @@
       <c r="B9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -1851,14 +1845,14 @@
         <v>82</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" ht="37.5" customHeight="1">
       <c r="A10" s="31" t="s">
@@ -1867,47 +1861,47 @@
       <c r="B10" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>84</v>
+      <c r="C10" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="40"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="32" t="s">
         <v>87</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35" t="s">
+      <c r="E11" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -1917,14 +1911,14 @@
         <v>82</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K11" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" ht="48.75" customHeight="1">
       <c r="A12" s="16" t="s">
@@ -1934,16 +1928,16 @@
         <v>50</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>15</v>
@@ -1951,7 +1945,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="28"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -1964,13 +1958,13 @@
         <v>62</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="20" t="s">
@@ -1979,7 +1973,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="28"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -1991,218 +1985,220 @@
       <c r="B14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>96</v>
+      <c r="C14" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="E14" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" ht="30.0" customHeight="1">
+    <row r="15" ht="60.0" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="37"/>
+      <c r="H15" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" ht="60.0" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>24</v>
+    <row r="16" ht="51.75" customHeight="1">
+      <c r="A16" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" ht="51.75" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" ht="52.5" customHeight="1">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>50</v>
+      <c r="B17" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" ht="52.5" customHeight="1">
-      <c r="A18" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>62</v>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" ht="55.5" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" ht="55.5" customHeight="1">
+      <c r="H18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+      <c r="H19" s="19"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" ht="38.25" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="29"/>
+      <c r="H20" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
     <row r="21" ht="38.25" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
@@ -2211,14 +2207,16 @@
         <v>15</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="24"/>
+        <v>70</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="K21" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -2229,210 +2227,208 @@
         <v>32</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>70</v>
-      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="K22" s="24"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" ht="38.25" customHeight="1">
-      <c r="A23" s="16" t="s">
+    <row r="23" ht="35.25" customHeight="1">
+      <c r="A23" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" ht="35.25" customHeight="1">
+      <c r="H23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+    </row>
+    <row r="25" ht="35.25" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-    </row>
-    <row r="26" ht="35.25" customHeight="1">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" ht="40.5" customHeight="1">
+      <c r="A27" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" ht="40.5" customHeight="1">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>117</v>
-      </c>
+      <c r="B28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="35"/>
       <c r="G28" s="48" t="s">
         <v>15</v>
       </c>
@@ -2444,166 +2440,110 @@
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
     </row>
-    <row r="29" ht="40.5" customHeight="1">
-      <c r="A29" s="17" t="s">
+    <row r="29" ht="30.0" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="48" t="s">
+      <c r="B29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-    </row>
-    <row r="30" ht="30.0" customHeight="1">
+      <c r="H29" s="32"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="30" ht="60.0" customHeight="1">
       <c r="A30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="37"/>
+      <c r="H30" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="21" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35" t="s">
+      <c r="E31" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" ht="60.0" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L33 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L33 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L33 M1:N1">
+  <conditionalFormatting sqref="L1:L31 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -2615,44 +2555,53 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18">
       <formula1>Keywords!$A$2:$A183</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:H16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H31">
+      <formula1>Keywords!$A$2:$A180</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H24">
-      <formula1>Keywords!$A$2:$A177</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H25">
+      <formula1>Keywords!$A$2:$A178</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A31">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6 H17 H25 H27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6 H27:H29">
       <formula1>Keywords!$A$2:$A164</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D33">
-      <formula1>Keywords!$A$2:$A33</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20:H22">
+      <formula1>Keywords!$A$2:$A181</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H26">
-      <formula1>Keywords!$A$2:$A178</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31">
+      <formula1>Keywords!$A$2:$A31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
+      <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10 H12:H13">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H33">
-      <formula1>Keywords!$A$2:$A180</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3 H19">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G31">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H23">
-      <formula1>Keywords!$A$2:$A181</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17">
+      <formula1>Keywords!$A$2:$A183</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2 H20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16 H24 H26 H30">
+      <formula1>Keywords!$A$2:$A176</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>Keywords!$A$2:$A165</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9 H11 H28:H32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9 H11">
       <formula1>Keywords!$A$2:$A165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H23">
+      <formula1>Keywords!$A$2:$A177</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2682,10 +2631,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5521,12 +5470,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C73" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5534,10 +5483,7 @@
       </c>
       <c r="D73" s="57"/>
       <c r="E73" s="57"/>
-      <c r="F73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
       <c r="I73" s="57"/>
@@ -5561,8 +5507,8 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B74" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5575,8 +5521,8 @@
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
       <c r="F74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
@@ -5601,20 +5547,23 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
+      <c r="F75" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
@@ -5638,16 +5587,16 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
@@ -5675,12 +5624,12 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C77" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5712,12 +5661,12 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C78" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5753,8 +5702,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B79" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C79" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5786,12 +5735,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B80" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C80" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5823,12 +5772,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B81" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C81" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5860,12 +5809,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C82" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5897,12 +5846,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C83" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5934,12 +5883,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C84" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5947,10 +5896,7 @@
       </c>
       <c r="D84" s="57"/>
       <c r="E84" s="57"/>
-      <c r="F84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
       <c r="I84" s="57"/>
@@ -5974,12 +5920,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C85" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5987,7 +5933,10 @@
       </c>
       <c r="D85" s="57"/>
       <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
+      <c r="F85" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
       <c r="I85" s="57"/>
@@ -6011,12 +5960,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C86" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6052,8 +6001,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C87" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6061,10 +6010,7 @@
       </c>
       <c r="D87" s="57"/>
       <c r="E87" s="57"/>
-      <c r="F87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F87" s="57"/>
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
       <c r="I87" s="57"/>
@@ -6088,12 +6034,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C88" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6102,8 +6048,8 @@
       <c r="D88" s="57"/>
       <c r="E88" s="57"/>
       <c r="F88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
@@ -6128,8 +6074,8 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B89" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -6142,8 +6088,8 @@
       <c r="D89" s="57"/>
       <c r="E89" s="57"/>
       <c r="F89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
@@ -6168,12 +6114,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C90" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6181,7 +6127,10 @@
       </c>
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
+      <c r="F90" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
       <c r="I90" s="57"/>
@@ -6205,12 +6154,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C91" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6242,20 +6191,20 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B92" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B92" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C92" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D92" s="57"/>
       <c r="E92" s="57"/>
-      <c r="F92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F92" s="57"/>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57"/>
@@ -6279,8 +6228,8 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B93" s="57"/>
       <c r="C93" s="57" t="str">
@@ -6290,8 +6239,8 @@
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
       <c r="F93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
@@ -6316,20 +6265,20 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B94" s="57"/>
       <c r="C94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D94" s="57"/>
       <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
+      <c r="F94" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G94" s="57"/>
       <c r="H94" s="57"/>
       <c r="I94" s="57"/>
@@ -6353,12 +6302,12 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C95" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6390,12 +6339,12 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C96" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6427,23 +6376,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D97" s="57"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F97" s="57"/>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
       <c r="I97" s="57"/>
@@ -6467,12 +6413,12 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
       </c>
       <c r="C98" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6480,7 +6426,10 @@
       </c>
       <c r="D98" s="57"/>
       <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
+      <c r="F98" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G98" s="57"/>
       <c r="H98" s="57"/>
       <c r="I98" s="57"/>
@@ -6504,16 +6453,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D99" s="57"/>
       <c r="E99" s="57"/>
@@ -6540,9 +6489,18 @@
       <c r="Z99" s="57"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
+      <c r="A100" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B100" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C100" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
       <c r="F100" s="57"/>

--- a/config/testcases/Report_MSP.ChW(Clone).xlsx
+++ b/config/testcases/Report_MSP.ChW(Clone).xlsx
@@ -232,7 +232,7 @@
     <t>getAudiosSource</t>
   </si>
   <si>
-    <t>FxSource</t>
+    <t>Managers/SoundManager/FxSource</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].audio[*].file_path</t>
@@ -1540,10 +1540,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -5433,12 +5431,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B72" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C72" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5470,8 +5468,8 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B73" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -5507,12 +5505,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5520,10 +5518,7 @@
       </c>
       <c r="D74" s="57"/>
       <c r="E74" s="57"/>
-      <c r="F74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
       <c r="I74" s="57"/>
@@ -5547,8 +5542,8 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B75" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5561,8 +5556,8 @@
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
       <c r="F75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -5587,20 +5582,23 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
+      <c r="F76" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
       <c r="I76" s="57"/>
@@ -5624,16 +5622,16 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
@@ -5661,12 +5659,12 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C78" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5698,12 +5696,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B79" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C79" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5739,8 +5737,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B80" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C80" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5772,12 +5770,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C81" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5809,12 +5807,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C82" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5846,12 +5844,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C83" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5883,12 +5881,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C84" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5920,12 +5918,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C85" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5933,10 +5931,7 @@
       </c>
       <c r="D85" s="57"/>
       <c r="E85" s="57"/>
-      <c r="F85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
       <c r="I85" s="57"/>
@@ -5960,12 +5955,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C86" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5973,7 +5968,10 @@
       </c>
       <c r="D86" s="57"/>
       <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
+      <c r="F86" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
       <c r="I86" s="57"/>
@@ -5997,12 +5995,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C87" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6034,12 +6032,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C88" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6047,10 +6045,7 @@
       </c>
       <c r="D88" s="57"/>
       <c r="E88" s="57"/>
-      <c r="F88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F88" s="57"/>
       <c r="G88" s="57"/>
       <c r="H88" s="57"/>
       <c r="I88" s="57"/>
@@ -6074,12 +6069,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C89" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6087,10 +6082,7 @@
       </c>
       <c r="D89" s="57"/>
       <c r="E89" s="57"/>
-      <c r="F89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F89" s="57"/>
       <c r="G89" s="57"/>
       <c r="H89" s="57"/>
       <c r="I89" s="57"/>
@@ -6114,12 +6106,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C90" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6128,8 +6120,8 @@
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
       <c r="F90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
@@ -6154,12 +6146,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C91" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6167,7 +6159,10 @@
       </c>
       <c r="D91" s="57"/>
       <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
+      <c r="F91" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
       <c r="I91" s="57"/>
@@ -6191,12 +6186,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C92" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6204,7 +6199,10 @@
       </c>
       <c r="D92" s="57"/>
       <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
+      <c r="F92" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
       <c r="I92" s="57"/>
@@ -6228,20 +6226,20 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B93" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B93" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
       <c r="C93" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F93" s="57"/>
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
       <c r="I93" s="57"/>
@@ -6265,20 +6263,20 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B94" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B94" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C94" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D94" s="57"/>
       <c r="E94" s="57"/>
-      <c r="F94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F94" s="57"/>
       <c r="G94" s="57"/>
       <c r="H94" s="57"/>
       <c r="I94" s="57"/>
@@ -6302,20 +6300,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B95" s="57"/>
       <c r="C95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D95" s="57"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
+      <c r="F95" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
       <c r="I95" s="57"/>
@@ -6339,20 +6337,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
-      </c>
-      <c r="B96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B96" s="57"/>
       <c r="C96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D96" s="57"/>
       <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
+      <c r="F96" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G96" s="57"/>
       <c r="H96" s="57"/>
       <c r="I96" s="57"/>
@@ -6376,12 +6374,12 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C97" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6413,23 +6411,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D98" s="57"/>
       <c r="E98" s="57"/>
-      <c r="F98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F98" s="57"/>
       <c r="G98" s="57"/>
       <c r="H98" s="57"/>
       <c r="I98" s="57"/>
@@ -6453,16 +6448,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D99" s="57"/>
       <c r="E99" s="57"/>
@@ -6490,20 +6485,23 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
       </c>
       <c r="C100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
+      <c r="F100" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
       <c r="I100" s="57"/>
@@ -6526,9 +6524,18 @@
       <c r="Z100" s="57"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
+      <c r="A101" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B101" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C101" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
       <c r="F101" s="57"/>
@@ -6554,9 +6561,18 @@
       <c r="Z101" s="57"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
+      <c r="A102" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B102" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C102" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D102" s="57"/>
       <c r="E102" s="57"/>
       <c r="F102" s="57"/>
@@ -6582,12 +6598,24 @@
       <c r="Z102" s="57"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B103" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C103" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D103" s="57"/>
       <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
+      <c r="F103" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G103" s="57"/>
       <c r="H103" s="57"/>
       <c r="I103" s="57"/>

--- a/config/testcases/Report_MSP.ChW(Clone).xlsx
+++ b/config/testcases/Report_MSP.ChW(Clone).xlsx
@@ -247,7 +247,7 @@
     <t>kiểm tra text đáp án 1</t>
   </si>
   <si>
-    <t>getText</t>
+    <t>getTextAlphabet</t>
   </si>
   <si>
     <t>Button/Content,TextMeshProUGUI</t>
@@ -2265,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>76</v>
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>86</v>
@@ -2559,9 +2559,6 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H25">
-      <formula1>Keywords!$A$2:$A178</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A31">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
@@ -2571,13 +2568,13 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20:H22">
       <formula1>Keywords!$A$2:$A181</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9 H11 D2:D31">
       <formula1>Keywords!$A$2:$A31</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
       <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10 H12:H13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10 H12:H13 H23 H25">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3 H19">
@@ -2594,12 +2591,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
       <formula1>Keywords!$A$2:$A165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9 H11">
-      <formula1>Keywords!$A$2:$A165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H23">
-      <formula1>Keywords!$A$2:$A177</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -4031,24 +4022,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
-      <c r="F36" s="59" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
@@ -4073,20 +4062,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="F37" s="59" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57"/>
@@ -4110,12 +4104,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4147,16 +4141,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="57"/>
       <c r="E39" s="57"/>
@@ -4184,16 +4178,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -4221,16 +4215,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -4258,22 +4252,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="57"/>
-      <c r="E42" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="57"/>
       <c r="F42" s="57"/>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
@@ -4298,23 +4289,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="57"/>
       <c r="G43" s="57"/>
       <c r="H43" s="57"/>
       <c r="I43" s="57"/>
@@ -4338,12 +4329,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4352,8 +4343,8 @@
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
       <c r="F44" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="57"/>
       <c r="H44" s="57"/>
@@ -4378,12 +4369,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4392,8 +4383,8 @@
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="57"/>
       <c r="H45" s="57"/>
@@ -4418,12 +4409,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4432,8 +4423,8 @@
       <c r="D46" s="57"/>
       <c r="E46" s="57"/>
       <c r="F46" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
@@ -4458,12 +4449,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4471,7 +4462,10 @@
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
+      <c r="F47" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
       <c r="I47" s="57"/>
@@ -4495,12 +4489,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4532,12 +4526,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4569,12 +4563,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4582,10 +4576,7 @@
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="57"/>
-      <c r="F50" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="57"/>
       <c r="G50" s="57"/>
       <c r="H50" s="57"/>
       <c r="I50" s="57"/>
@@ -4609,20 +4600,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="F51" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="57"/>
       <c r="H51" s="57"/>
       <c r="I51" s="57"/>
@@ -4646,16 +4640,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -4683,8 +4677,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4724,8 +4718,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4757,23 +4751,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
-      <c r="F55" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="57"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
       <c r="I55" s="57"/>
@@ -4797,25 +4788,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="57"/>
       <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
+      <c r="F56" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
       <c r="I56" s="57"/>
@@ -4839,18 +4828,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="57"/>
+      <c r="D57" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="57"/>
       <c r="F57" s="57"/>
       <c r="G57" s="57"/>
@@ -4876,21 +4870,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="57"/>
       <c r="E58" s="57"/>
       <c r="F58" s="57"/>
       <c r="G58" s="57"/>
@@ -4916,23 +4907,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="57"/>
-      <c r="F59" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="57"/>
       <c r="G59" s="57"/>
       <c r="H59" s="57"/>
       <c r="I59" s="57"/>
@@ -4960,19 +4951,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="57"/>
       <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
+      <c r="F60" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
       <c r="I60" s="57"/>
@@ -4996,22 +4987,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="57"/>
       <c r="F61" s="57"/>
       <c r="G61" s="57"/>
       <c r="H61" s="57"/>
@@ -5036,19 +5027,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
+      <c r="E62" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
@@ -5073,12 +5067,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5114,8 +5108,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5147,21 +5141,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="57"/>
       <c r="E65" s="57"/>
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
@@ -5187,27 +5178,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="57"/>
-      <c r="F66" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="57"/>
       <c r="G66" s="57"/>
       <c r="H66" s="57"/>
       <c r="I66" s="57"/>
@@ -5231,8 +5218,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -5247,12 +5234,10 @@
       <c r="F67" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
@@ -5281,13 +5266,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="57"/>
       <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="F68" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
       <c r="I68" s="57"/>
@@ -5311,17 +5308,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="57"/>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
       <c r="F69" s="57"/>
@@ -5348,26 +5342,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="57"/>
       <c r="E70" s="57"/>
-      <c r="F70" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
       <c r="I70" s="57"/>
@@ -5391,22 +5379,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="57"/>
       <c r="F71" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -5431,12 +5422,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5444,7 +5435,10 @@
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+      <c r="F72" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
       <c r="I72" s="57"/>
@@ -5468,12 +5462,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5505,8 +5499,8 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -5542,12 +5536,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5555,10 +5549,7 @@
       </c>
       <c r="D75" s="57"/>
       <c r="E75" s="57"/>
-      <c r="F75" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
       <c r="I75" s="57"/>
@@ -5582,8 +5573,8 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5596,8 +5587,8 @@
       <c r="D76" s="57"/>
       <c r="E76" s="57"/>
       <c r="F76" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
@@ -5622,20 +5613,23 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D77" s="57"/>
       <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
+      <c r="F77" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
       <c r="I77" s="57"/>
@@ -5659,16 +5653,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="57"/>
       <c r="E78" s="57"/>
@@ -5696,12 +5690,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5733,12 +5727,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5774,8 +5768,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5807,12 +5801,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5844,12 +5838,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5881,12 +5875,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5918,12 +5912,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5955,12 +5949,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5968,10 +5962,7 @@
       </c>
       <c r="D86" s="57"/>
       <c r="E86" s="57"/>
-      <c r="F86" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
       <c r="I86" s="57"/>
@@ -5995,12 +5986,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6008,7 +5999,10 @@
       </c>
       <c r="D87" s="57"/>
       <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
+      <c r="F87" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
       <c r="I87" s="57"/>
@@ -6032,12 +6026,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6069,12 +6063,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6110,8 +6104,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6119,10 +6113,7 @@
       </c>
       <c r="D90" s="57"/>
       <c r="E90" s="57"/>
-      <c r="F90" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F90" s="57"/>
       <c r="G90" s="57"/>
       <c r="H90" s="57"/>
       <c r="I90" s="57"/>
@@ -6146,12 +6137,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6160,8 +6151,8 @@
       <c r="D91" s="57"/>
       <c r="E91" s="57"/>
       <c r="F91" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
@@ -6186,8 +6177,8 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B92" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -6200,8 +6191,8 @@
       <c r="D92" s="57"/>
       <c r="E92" s="57"/>
       <c r="F92" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G92" s="57"/>
       <c r="H92" s="57"/>
@@ -6226,12 +6217,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B93" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C93" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6239,7 +6230,10 @@
       </c>
       <c r="D93" s="57"/>
       <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
+      <c r="F93" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G93" s="57"/>
       <c r="H93" s="57"/>
       <c r="I93" s="57"/>
@@ -6263,12 +6257,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B94" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C94" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6300,20 +6294,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B95" s="57"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B95" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C95" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="57"/>
       <c r="E95" s="57"/>
-      <c r="F95" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F95" s="57"/>
       <c r="G95" s="57"/>
       <c r="H95" s="57"/>
       <c r="I95" s="57"/>
@@ -6337,8 +6331,8 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B96" s="57"/>
       <c r="C96" s="57" t="str">
@@ -6348,8 +6342,8 @@
       <c r="D96" s="57"/>
       <c r="E96" s="57"/>
       <c r="F96" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G96" s="57"/>
       <c r="H96" s="57"/>
@@ -6374,20 +6368,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B97" s="57"/>
       <c r="C97" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D97" s="57"/>
       <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
+      <c r="F97" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G97" s="57"/>
       <c r="H97" s="57"/>
       <c r="I97" s="57"/>
@@ -6411,12 +6405,12 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B98" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C98" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6448,12 +6442,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B99" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C99" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6485,23 +6479,20 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D100" s="57"/>
       <c r="E100" s="57"/>
-      <c r="F100" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F100" s="57"/>
       <c r="G100" s="57"/>
       <c r="H100" s="57"/>
       <c r="I100" s="57"/>
@@ -6525,12 +6516,12 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
       </c>
       <c r="C101" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6538,7 +6529,10 @@
       </c>
       <c r="D101" s="57"/>
       <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
+      <c r="F101" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="57"/>
       <c r="H101" s="57"/>
       <c r="I101" s="57"/>
@@ -6562,16 +6556,16 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B102" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C102" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D102" s="57"/>
       <c r="E102" s="57"/>
@@ -6599,23 +6593,20 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B103" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C103" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D103" s="57"/>
       <c r="E103" s="57"/>
-      <c r="F103" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F103" s="57"/>
       <c r="G103" s="57"/>
       <c r="H103" s="57"/>
       <c r="I103" s="57"/>
@@ -6638,12 +6629,24 @@
       <c r="Z103" s="57"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="57"/>
       <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
+      <c r="F104" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="57"/>
       <c r="H104" s="57"/>
       <c r="I104" s="57"/>

--- a/config/testcases/Report_MSP.ChW(Clone).xlsx
+++ b/config/testcases/Report_MSP.ChW(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="4fKXVErUtxcA5vPEVMyBsHS6xaDYGzhtJtJaQlK00yQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="i3/pIGfodAxMdeRBFqOixM2LL36Xgo1A2MXSN07Y42o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -64,7 +64,7 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Kiểm tra text câu hỏi lượt 1</t>
+    <t>Kiểm tra audio câu hỏi lượt 1</t>
   </si>
   <si>
     <t>Y</t>
@@ -73,7 +73,7 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Kiểm tra audio câu hỏi lượt 1</t>
+    <t>Kiểm tra data câu hỏi lượt 1</t>
   </si>
   <si>
     <t>TC3</t>
@@ -109,7 +109,7 @@
     <t>TC8</t>
   </si>
   <si>
-    <t>Kiểm tra text câu hỏi lượt 2</t>
+    <t>Kiểm tra data câu hỏi lượt 2</t>
   </si>
   <si>
     <t>TC9</t>
@@ -175,10 +175,28 @@
     <t>TS1</t>
   </si>
   <si>
-    <t>Kiểm tra text câu hỏi</t>
+    <t>Đợi game xuất hiện</t>
   </si>
   <si>
     <t>waitForObject</t>
+  </si>
+  <si>
+    <t>characters_max(Clone),60</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra audio câu hỏi </t>
+  </si>
+  <si>
+    <t>15,.mp3</t>
+  </si>
+  <si>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>Kiểm tra text câu hỏi</t>
   </si>
   <si>
     <t>Question chat box</t>
@@ -193,13 +211,19 @@
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='question')].text</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra audio câu hỏi </t>
+    <t>Kiểm tra ảnh câu hỏi</t>
   </si>
   <si>
-    <t>15,.mp3</t>
+    <t>comPairImage</t>
   </si>
   <si>
-    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
+    <t>Question area/Answer image/Content</t>
+  </si>
+  <si>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='question')].image.file_path</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>Chờ câu trả lời xuất hiện</t>
@@ -208,16 +232,10 @@
     <t>Reply chat box</t>
   </si>
   <si>
-    <t>TS2</t>
-  </si>
-  <si>
     <t>Kiểm tra ảnh câu trả lời 1</t>
   </si>
   <si>
-    <t>getImageName</t>
-  </si>
-  <si>
-    <t>Answer image/Content,Image</t>
+    <t>Reply area/Answer image/Content</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].image[*].file_path</t>
@@ -272,9 +290,6 @@
   </si>
   <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer')].audio[*].file_path</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Kiểm tra text đáp án 2</t>
@@ -520,6 +535,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -527,9 +545,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -549,14 +564,26 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -567,17 +594,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -610,9 +628,6 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1022,37 +1037,22 @@
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="10">
-        <f>COUNTIF(D:D,"PASS")</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
-        <f>COUNTIF(D:D,"FAIL")</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="10">
-        <f>COUNTIF(D:D,"SKIP")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <f>SUM(I2:K2)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="10">
-        <f>SUM(I2:J2)</f>
-        <v>0</v>
-      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -1073,181 +1073,196 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
+        <f>COUNTIF(D:D,"PASS")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>COUNTIF(D:D,"FAIL")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f>COUNTIF(D:D,"SKIP")</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f>SUM(I3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>SUM(I3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -1259,247 +1274,247 @@
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D14">
@@ -1540,8 +1555,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1604,7 +1621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="30.0" customHeight="1">
+    <row r="2" ht="37.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
@@ -1614,583 +1631,587 @@
       <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" ht="37.5" customHeight="1">
       <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+    </row>
+    <row r="4" ht="30.0" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="I4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" ht="38.25" customHeight="1">
+      <c r="J4" s="27"/>
+      <c r="K4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" ht="37.5" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" ht="38.25" customHeight="1">
+      <c r="K5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" ht="38.25" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="J7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" ht="38.25" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="C8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="24" t="s">
+      <c r="J8" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="K8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H10" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I10" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-    </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="D11" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" ht="25.5" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33" t="s">
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" ht="48.75" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" ht="48.75" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" ht="48.75" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" ht="60.0" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>24</v>
+    <row r="15" ht="48.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" ht="51.75" customHeight="1">
-      <c r="A16" s="16" t="s">
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+    </row>
+    <row r="17" ht="60.0" customHeight="1">
+      <c r="A17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+    </row>
+    <row r="18" ht="51.75" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" ht="52.5" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" ht="55.5" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" ht="52.5" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+    </row>
+    <row r="20" ht="55.5" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" ht="38.25" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" ht="38.25" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>50</v>
@@ -2198,399 +2219,459 @@
       <c r="C21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
+      <c r="D21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" ht="38.25" customHeight="1">
       <c r="A22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" ht="38.25" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20" t="s">
+      <c r="B23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" ht="35.25" customHeight="1">
-      <c r="A23" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="18" t="s">
         <v>75</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="J23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" ht="38.25" customHeight="1">
+      <c r="A24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" ht="35.25" customHeight="1">
+      <c r="A25" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33" t="s">
+      <c r="I26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" ht="35.25" customHeight="1">
+      <c r="A27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H27" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-    </row>
-    <row r="25" ht="35.25" customHeight="1">
-      <c r="A25" s="31" t="s">
+      <c r="I27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" ht="25.5" customHeight="1">
+      <c r="A28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" ht="40.5" customHeight="1">
+      <c r="A29" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+    </row>
+    <row r="30" ht="40.5" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33" t="s">
+      <c r="E30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="A26" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+    </row>
+    <row r="31" ht="30.0" customHeight="1">
+      <c r="A31" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+    </row>
+    <row r="32" ht="60.0" customHeight="1">
+      <c r="A32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33" t="s">
+      <c r="J32" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" ht="40.5" customHeight="1">
-      <c r="A27" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-    </row>
-    <row r="28" ht="40.5" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-    </row>
-    <row r="29" ht="30.0" customHeight="1">
-      <c r="A29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" ht="60.0" customHeight="1">
-      <c r="A30" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L31 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21">
+      <formula1>Keywords!$A$2:$A183</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12 H14:H15 H25 H27">
+      <formula1>Keywords!$A$2:$A167</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16">
+      <formula1>Keywords!$A$2:$A169</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A33">
+      <formula1>TestCase!$A:$A</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4">
+      <formula1>Keywords!$A$2:$A165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H23:H24">
+      <formula1>Keywords!$A$2:$A182</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H11 H13 D2:D33">
+      <formula1>Keywords!$A$2:$A33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8 H29:H31">
+      <formula1>Keywords!$A$2:$A165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H33">
+      <formula1>Keywords!$A$2:$A180</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3 H19">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18">
-      <formula1>Keywords!$A$2:$A183</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H31">
-      <formula1>Keywords!$A$2:$A180</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
-      <formula1>Keywords!$A$2:$A169</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A31">
-      <formula1>TestCase!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6 H27:H29">
-      <formula1>Keywords!$A$2:$A164</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20:H22">
-      <formula1>Keywords!$A$2:$A181</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H9 H11 D2:D31">
-      <formula1>Keywords!$A$2:$A31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
-      <formula1>Keywords!$A$2:$A171</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10 H12:H13 H23 H25">
-      <formula1>Keywords!$A$2:$A167</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3 H19">
-      <formula1>Keywords!$A$2:$A167</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G33">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17">
-      <formula1>Keywords!$A$2:$A183</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6">
+      <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16 H24 H26 H30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H7 H20 H22">
+      <formula1>Keywords!$A$2:$A168</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18 H26 H28 H32">
       <formula1>Keywords!$A$2:$A176</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
-      <formula1>Keywords!$A$2:$A165</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17">
+      <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2620,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6520,8 +6601,8 @@
         <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C101" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6634,8 +6715,8 @@
         <v>swipeMap</v>
       </c>
       <c r="B104" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C104" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6669,12 +6750,24 @@
       <c r="Z104" s="57"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B105" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C105" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
+      <c r="F105" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G105" s="57"/>
       <c r="H105" s="57"/>
       <c r="I105" s="57"/>

--- a/config/testcases/Report_MSP.ChW(Clone).xlsx
+++ b/config/testcases/Report_MSP.ChW(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="TUgvnbgiXdEXNj1LeMOx15yT3ChfkyclkMA70TIopbQ="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="i3/pIGfodAxMdeRBFqOixM2LL36Xgo1A2MXSN07Y42o="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>TCID</t>
   </si>
@@ -256,18 +256,6 @@
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].image[*].file_path</t>
   </si>
   <si>
-    <t>Kiểm tra audio câu trả lời</t>
-  </si>
-  <si>
-    <t>getAudiosSource</t>
-  </si>
-  <si>
-    <t>Managers/SoundManager/FxSource</t>
-  </si>
-  <si>
-    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].audio[*].file_path</t>
-  </si>
-  <si>
     <t>Chờ đáp án xuất hiện</t>
   </si>
   <si>
@@ -352,6 +340,9 @@
     <t>TS5</t>
   </si>
   <si>
+    <t>Kiểm tra audio câu trả lời</t>
+  </si>
+  <si>
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
@@ -359,6 +350,9 @@
   </si>
   <si>
     <t>isElementDisplay</t>
+  </si>
+  <si>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[0].word[?(@.type=='answer_data')].audio[*].file_path</t>
   </si>
   <si>
     <t>Đợi câu hỏi 2 xuất hiện</t>
@@ -388,19 +382,16 @@
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer_data')].image[*].file_path</t>
   </si>
   <si>
-    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer_data')].audio[*].file_path</t>
-  </si>
-  <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer')].text_boolean_</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer')].audio[*].file_path</t>
   </si>
   <si>
-    <t>TS6</t>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].right_answer.text</t>
   </si>
   <si>
-    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].right_answer.text</t>
+    <t>$.act[?(@.game_name=="MSP.ChW(Clone)")].turn[1].word[?(@.type=='answer_data')].audio[*].file_path</t>
   </si>
   <si>
     <t>Kiểm tra kết thúc game</t>
@@ -1892,62 +1883,60 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
     </row>
-    <row r="9" ht="38.25" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="26" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+      <c r="H9" s="43"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>83</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="43"/>
       <c r="G10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="45"/>
+      <c r="H10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="J10" s="43"/>
-      <c r="K10" s="46"/>
+      <c r="K10" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -1957,139 +1946,139 @@
         <v>20</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="F11" s="43"/>
       <c r="G11" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" ht="25.5" customHeight="1">
+    <row r="12" ht="37.5" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="49" t="s">
         <v>90</v>
       </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="43"/>
       <c r="G12" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>72</v>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
     </row>
-    <row r="13" ht="37.5" customHeight="1">
+    <row r="13" ht="25.5" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C13" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="48"/>
       <c r="F13" s="43"/>
       <c r="G13" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="42" t="s">
+    <row r="14" ht="48.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="E14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="49" t="s">
+      <c r="F14" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
     </row>
     <row r="15" ht="48.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>99</v>
@@ -2100,9 +2089,7 @@
       <c r="E15" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>102</v>
-      </c>
+      <c r="F15" s="30"/>
       <c r="G15" s="31" t="s">
         <v>15</v>
       </c>
@@ -2114,40 +2101,40 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" ht="48.75" customHeight="1">
-      <c r="A16" s="26" t="s">
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="43"/>
+      <c r="G16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" ht="60.0" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>106</v>
@@ -2162,116 +2149,118 @@
       <c r="G17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="46"/>
+      <c r="H17" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
     </row>
-    <row r="18" ht="60.0" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>24</v>
+    <row r="18" ht="51.75" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-    </row>
-    <row r="19" ht="51.75" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" ht="52.5" customHeight="1">
+      <c r="A19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>50</v>
+      <c r="B19" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" ht="52.5" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>54</v>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" ht="55.5" customHeight="1">
+      <c r="A20" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
     </row>
     <row r="21" ht="55.5" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>117</v>
@@ -2282,197 +2271,201 @@
       <c r="G21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="30" t="s">
+      <c r="H21" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="55" t="s">
         <v>118</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
     </row>
-    <row r="22" ht="55.5" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+        <v>73</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+      <c r="H22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" ht="38.25" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="34"/>
       <c r="G23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="40"/>
+      <c r="H23" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" ht="38.25" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
+        <v>78</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>79</v>
+      </c>
       <c r="F24" s="34"/>
       <c r="G24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>72</v>
-      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
     </row>
-    <row r="25" ht="38.25" customHeight="1">
-      <c r="A25" s="26" t="s">
+    <row r="25" ht="35.25" customHeight="1">
+      <c r="A25" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>122</v>
-      </c>
+      <c r="H25" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="43"/>
       <c r="K25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-    </row>
-    <row r="26" ht="38.25" customHeight="1">
-      <c r="A26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="H26" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" ht="35.25" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="43"/>
+        <v>90</v>
+      </c>
+      <c r="D27" s="50"/>
       <c r="E27" s="48"/>
       <c r="F27" s="43"/>
       <c r="G27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -2483,29 +2476,29 @@
         <v>32</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>72</v>
@@ -2514,249 +2507,183 @@
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="26" t="s">
+    <row r="29" ht="40.5" customHeight="1">
+      <c r="A29" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+    </row>
+    <row r="30" ht="40.5" customHeight="1">
+      <c r="A30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+    </row>
+    <row r="31" ht="30.0" customHeight="1">
+      <c r="A31" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+    </row>
+    <row r="32" ht="60.0" customHeight="1">
+      <c r="A32" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44" t="s">
+      <c r="I32" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-    </row>
-    <row r="30" ht="25.5" customHeight="1">
-      <c r="A30" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-    </row>
-    <row r="31" ht="40.5" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-    </row>
-    <row r="32" ht="40.5" customHeight="1">
-      <c r="A32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-    </row>
-    <row r="33" ht="30.0" customHeight="1">
-      <c r="A33" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-    </row>
-    <row r="34" ht="60.0" customHeight="1">
-      <c r="A34" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L35 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L35 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L35 M1:N1">
+  <conditionalFormatting sqref="L1:L33 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6 H8 H21:H22 H26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6 H8 H23">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H31:H33">
-      <formula1>Keywords!$A$2:$A186</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12 H14:H15 H25 H27">
+      <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18 H27 H29">
-      <formula1>Keywords!$A$2:$A171</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16">
+      <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A33">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
@@ -2765,35 +2692,35 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H24">
-      <formula1>Keywords!$A$2:$A185</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H22">
+      <formula1>Keywords!$A$2:$A183</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10:H12 H14 D2:D35">
-      <formula1>Keywords!$A$2:$A35</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H11 H13 D2:D33">
+      <formula1>Keywords!$A$2:$A33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H29:H31">
+      <formula1>Keywords!$A$2:$A186</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H33">
+      <formula1>Keywords!$A$2:$A180</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19 H24">
+      <formula1>Keywords!$A$2:$A183</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G33">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5">
+      <formula1>Keywords!$A$2:$A165</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H4 H20:H21">
+      <formula1>Keywords!$A$2:$A166</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18 H26 H28 H32">
+      <formula1>Keywords!$A$2:$A176</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17">
-      <formula1>Keywords!$A$2:$A169</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9 H28 H30 H34">
-      <formula1>Keywords!$A$2:$A165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19 H25">
-      <formula1>Keywords!$A$2:$A176</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G35">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H35">
-      <formula1>Keywords!$A$2:$A180</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H23">
-      <formula1>Keywords!$A$2:$A165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H4 H20">
-      <formula1>Keywords!$A$2:$A166</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13 H15:H16">
-      <formula1>Keywords!$A$2:$A167</formula1>
+      <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2823,10 +2750,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
